--- a/data/trans_camb/P19C09-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5604109417795626</v>
+        <v>-0.5577324234849454</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7240074276999815</v>
+        <v>-0.8031128334406917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.674118842614567</v>
+        <v>-1.894895526891381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.475270835107448</v>
+        <v>-2.390104431118349</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4903340553877611</v>
+        <v>-0.4564168299664281</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7200454558948232</v>
+        <v>-0.6494519399029069</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.747502442406096</v>
+        <v>3.631571472222261</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.312398230699984</v>
+        <v>3.534955652699402</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.853184982525844</v>
+        <v>4.923573115752504</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.403772547332245</v>
+        <v>3.356781978223816</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.285417989649552</v>
+        <v>3.089900822425664</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.893489275543441</v>
+        <v>2.722044436873358</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3529017109027266</v>
+        <v>-0.3437118758907538</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4768527474036979</v>
+        <v>-0.4933391929582661</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4637342264802706</v>
+        <v>-0.5119892536123239</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5698039996568912</v>
+        <v>-0.6029599975906993</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2055106470398242</v>
+        <v>-0.1923349545838578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2689903691718618</v>
+        <v>-0.2780292695330165</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.087948079728235</v>
+        <v>5.344697147335389</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.332892226931777</v>
+        <v>4.864255121895541</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.707500996683986</v>
+        <v>4.179133946733113</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.539015089312404</v>
+        <v>2.805060434425143</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.596153225150914</v>
+        <v>2.620405794595824</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.286991249632222</v>
+        <v>2.150204984587306</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.375564130676837</v>
+        <v>-2.596229262056822</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.506610618724759</v>
+        <v>-2.55808910560537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4367930140395983</v>
+        <v>-0.2825984239605573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.346468018002936</v>
+        <v>-1.331342447656322</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9317651783069425</v>
+        <v>-0.7990985284459166</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.255480117021317</v>
+        <v>-1.234351754199333</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.550451110259966</v>
+        <v>2.232166827403991</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.217049118727475</v>
+        <v>2.204847003264182</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.72044140214352</v>
+        <v>5.865417306419034</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.604679543875383</v>
+        <v>3.557326335235264</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.054726938162724</v>
+        <v>2.828572643426347</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.156368823808636</v>
+        <v>2.066880056977344</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7759384213124594</v>
+        <v>-0.8088966928885046</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8324998147335163</v>
+        <v>-0.8654531368539237</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2395459412954941</v>
+        <v>-0.2285598096253156</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5458803086194265</v>
+        <v>-0.4327977394668874</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3860000262184737</v>
+        <v>-0.3012364810296559</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4293647674045691</v>
+        <v>-0.4716530973273507</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.182988175247672</v>
+        <v>3.276699572134087</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.964519888816622</v>
+        <v>3.068932338038584</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.901730466830753</v>
+        <v>5.211846933332298</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.319675517696931</v>
+        <v>3.293395882036907</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.201632244441862</v>
+        <v>2.430326062782274</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.781726978058419</v>
+        <v>1.718909113184422</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.399586871837212</v>
+        <v>-3.586555620101743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.15941912339449</v>
+        <v>-3.017894377257528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.766685267751472</v>
+        <v>-3.897162569222279</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.553818838617247</v>
+        <v>-7.523126830637568</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.032794440498767</v>
+        <v>-2.652385665621965</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.150860062045783</v>
+        <v>-3.15245743184907</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.036649158554095</v>
+        <v>0.9733288142905864</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.878763550651886</v>
+        <v>1.889468969369119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.406738967261348</v>
+        <v>3.094958621760271</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.8334524807876349</v>
+        <v>-0.8211983089881753</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.015151319780585</v>
+        <v>1.012344351373914</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6539987815037261</v>
+        <v>0.8478292489841865</v>
       </c>
     </row>
     <row r="19">
@@ -1033,20 +1033,20 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7333161286922319</v>
+        <v>-0.7634702985902179</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6605520459309078</v>
+        <v>-0.6729007189925902</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7317119590940508</v>
+        <v>-0.7356909220042245</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
-        <v>-0.674887121484953</v>
+        <v>-0.6235545144927359</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.715677203770433</v>
+        <v>-0.7222788845193264</v>
       </c>
     </row>
     <row r="21">
@@ -1057,20 +1057,20 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6689436992941595</v>
+        <v>0.5851357691304911</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.150427416353478</v>
+        <v>0.9587533952580882</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.365668938869544</v>
+        <v>4.016684019538638</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>0.5915193887374985</v>
+        <v>0.5705053548091392</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4896745688646528</v>
+        <v>0.5124302155425868</v>
       </c>
     </row>
     <row r="22">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.110529667843982</v>
+        <v>-2.956384151182105</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.614115858033223</v>
+        <v>-1.75853468210705</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.377133621466653</v>
+        <v>-1.342558318793391</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.336275534958696</v>
+        <v>-1.365021197895635</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.849429606130342</v>
+        <v>-2.023131228973014</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.197421495999412</v>
+        <v>-1.149375324204532</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.3426350531757578</v>
+        <v>-0.4548825179998262</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.468074198804061</v>
+        <v>1.498513090955431</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.350639032190066</v>
+        <v>2.200793625151862</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.099403267356217</v>
+        <v>2.181145036638438</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2923535323527782</v>
+        <v>0.1896023133080569</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.19808975475223</v>
+        <v>1.20165176641212</v>
       </c>
     </row>
     <row r="25">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8155614535349756</v>
+        <v>-0.7999220733135264</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4528214497973503</v>
+        <v>-0.4691453019677884</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4877593521503106</v>
+        <v>-0.4852257276895325</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4613572165179514</v>
+        <v>-0.4784288312815045</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5896250056708864</v>
+        <v>-0.6274829672762363</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3765661698819596</v>
+        <v>-0.3596287494896974</v>
       </c>
     </row>
     <row r="27">
@@ -1215,22 +1215,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1303107342765</v>
+        <v>-0.124210111647449</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6998109369721219</v>
+        <v>0.6594466399764946</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.830322379944314</v>
+        <v>1.648641114523238</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.775573167613797</v>
+        <v>1.609524785870047</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1556431208678671</v>
+        <v>0.1275791133820439</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5795215873388754</v>
+        <v>0.6361304396599675</v>
       </c>
     </row>
     <row r="28">
@@ -1271,22 +1271,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.275537353392412</v>
+        <v>-5.365194944374536</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.625593230227907</v>
+        <v>-3.746427638776404</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.65049004173983</v>
+        <v>-3.68998063162749</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.264337660755628</v>
+        <v>-3.165651141666547</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.778576044014623</v>
+        <v>-3.669944168080895</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.740028261738308</v>
+        <v>-2.518230504031405</v>
       </c>
     </row>
     <row r="30">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05024181936729002</v>
+        <v>0.05700078829572229</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.22426111672653</v>
+        <v>2.329092766277799</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5757960004851393</v>
+        <v>0.4544457148176532</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.193682671234173</v>
+        <v>1.60092608676528</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.2844817855360596</v>
+        <v>-0.4126430025434626</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9940207304841565</v>
+        <v>1.157005564810585</v>
       </c>
     </row>
     <row r="31">
@@ -1349,22 +1349,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.91607928002352</v>
+        <v>-0.9342738157936504</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6694430032749125</v>
+        <v>-0.6445394154880125</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7462526579531734</v>
+        <v>-0.7095367965046648</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6542791077624543</v>
+        <v>-0.6447730134798566</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7497538370564608</v>
+        <v>-0.7579572730944776</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5604881577344817</v>
+        <v>-0.5182082696423526</v>
       </c>
     </row>
     <row r="33">
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3729293038603093</v>
+        <v>0.2896698770928151</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.203139509903523</v>
+        <v>1.162410039523698</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3174988921546271</v>
+        <v>0.2649628098267883</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5867798862735342</v>
+        <v>0.8565946644778011</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.05845700852989343</v>
+        <v>-0.08738122793237506</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3862032919333598</v>
+        <v>0.4766479520420223</v>
       </c>
     </row>
     <row r="34">
@@ -1431,22 +1431,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.159032592061219</v>
+        <v>-3.414925988618194</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.6973006291778078</v>
+        <v>-0.4905814326156863</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.097780468709214</v>
+        <v>-3.149556705765737</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.991766738044566</v>
+        <v>-3.021590050402707</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.588876598800026</v>
+        <v>-2.722572915795486</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.029658739574807</v>
+        <v>-2.040661547923759</v>
       </c>
     </row>
     <row r="36">
@@ -1457,22 +1457,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.825737126547124</v>
+        <v>1.678984880777131</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.860490851590459</v>
+        <v>6.089767392043066</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.2006973031784732</v>
+        <v>0.3520104911423295</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.499732849056789</v>
+        <v>0.3211241116755413</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.1384269252764675</v>
+        <v>0.1692345374398563</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.125211612925674</v>
+        <v>1.063690477092773</v>
       </c>
     </row>
     <row r="37">
@@ -1512,19 +1512,19 @@
         <v>-1</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3569687654834186</v>
+        <v>-0.3318684837941553</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6311965056449054</v>
+        <v>-0.6164524232610147</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.602367624764312</v>
+        <v>-0.6124202067068946</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5968395201891136</v>
+        <v>-0.5974213862513128</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4631165332418337</v>
+        <v>-0.4578020140059188</v>
       </c>
     </row>
     <row r="39">
@@ -1535,22 +1535,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>4.095674458437163</v>
+        <v>2.558477427964218</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>7.011855814011437</v>
+        <v>7.540700640409915</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.06706778657735477</v>
+        <v>0.1389077171116359</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1641272287001079</v>
+        <v>0.1560896009624342</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.04960243760525426</v>
+        <v>0.07325893037268214</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4145413820440302</v>
+        <v>0.3741928588904215</v>
       </c>
     </row>
     <row r="40">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.73474508044499</v>
+        <v>-1.79854635278425</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.7356436081678552</v>
+        <v>-0.6606268106674091</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.33890352028859</v>
+        <v>-1.300718700203596</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.399965621355758</v>
+        <v>-1.368704189230684</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.210116880015708</v>
+        <v>-1.260492101928235</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.7893581759639871</v>
+        <v>-0.8567819284781765</v>
       </c>
     </row>
     <row r="42">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.03259921673215198</v>
+        <v>-0.08506228634578607</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.146352389132652</v>
+        <v>1.169735118252666</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.502301014019509</v>
+        <v>0.5245427531876293</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.4805246466686134</v>
+        <v>0.3845137781660871</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.02790396604784941</v>
+        <v>-0.0142973347221702</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.5219759185839333</v>
+        <v>0.4832186027571299</v>
       </c>
     </row>
     <row r="43">
@@ -1669,22 +1669,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5596841166879899</v>
+        <v>-0.5784376112783883</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2386596271342945</v>
+        <v>-0.2259345927221452</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3638290946588644</v>
+        <v>-0.3508443739815901</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3788245521993869</v>
+        <v>-0.3886704332256028</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3780321039157005</v>
+        <v>-0.3768130743402893</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2427567802044622</v>
+        <v>-0.2584215530748423</v>
       </c>
     </row>
     <row r="45">
@@ -1695,22 +1695,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.009804840740210151</v>
+        <v>-0.02801232787322876</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5301146466654031</v>
+        <v>0.5299179515711635</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1927252211950485</v>
+        <v>0.1920317180546453</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1895728205372021</v>
+        <v>0.1489175858006406</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.007665511709056234</v>
+        <v>-0.002468177416433591</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2076979890094097</v>
+        <v>0.1850368404269755</v>
       </c>
     </row>
     <row r="46">
